--- a/recipe_archive.xlsx
+++ b/recipe_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5713,6 +5713,248 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Quick BBQ Ground Beef Tacos</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/quick-bbq-ground-beef-tacos-1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>['250g\r Ground beef', '200g\r Matchstick carrots', '50g\r Sliced red onions', '1\r Lime', '1\r Sweet pepper', '60ml\r Mayonnaise', '30ml\r BBQ sauce', '6 Wheat flour tortillas', '8g Montpellier to Moscow spices (onion, salt, paprika, garlic, sugar, thyme, parsley, rosemary, green bell pepper, mustard, cumin, cayenne pepper, sunflower oil, bay leaf)']</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>beef</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Fresh Gemelli Leeks String Peas</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/fresh-gemelli-leeks-string-peas</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>['100g Sugar snap peas (or snow peas)', '100g Green peas', '50g Sliced leeks', '1 Bunch of basil', '30ml White balsamic vinegar', '225g Fresh gemelli', '60ml Mascarpone', '9g Zesty Herbs spices (garlic, dehydrated carrots, red bell pepper, onion, chives, salt, spices, mustard, sugar, sunflower oil, lemon oil)']</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>10-Minute Marseille-Style Shrimp Stew</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/10-minute-marseille-styleshrimp-stew</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>['285g\r Shrimp', '200g\r Carrots (orange or multicoloured)', '90g Baby greens (lettuce mix, baby spinach, kale or arugula)', '45ml Maple-Dijon vinaigrette', '15g\r Minced roasted garlic', '100ml\r Tomato sauce', '30ml Vegetable demi-glace', '2\r Garlic focaccia buns', '7g Herb Harvest spices (basil, marjoram, thyme, parsley, rosemary, fennel, mint, salt, garlic, sugar, red bell pepper, vinegar powder, green bell pepper, sunflower oil, paprika, turmeric, cayenne pepper)']</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>shrimp</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Minty Seared Veggie Bowls</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/minty-seared-veggie-bowls-1</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>['1\r Bunch of mint', '1\r Zucchini (green, yellow or heirloom)', '1\r Sweet pepper', '15ml Apple cider vinegar', '57g\r Avocado purée', '140g\r Orzo', '60g\r Feta', '43ml\r Sour cream', '15g Sweet Mustard spices (mustard, brown sugar, black pepper, kosher salt)']</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sheet Pan Sticky Tamarind Chicken Thighs</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/sheet-pan-sticky-tamarindchicken-thighs</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>['4\r Chicken thighs', '450g\r Potatoes', '170g\r Baby bok choy', '150g\r Matchstick daikon', '150g\r Shredded green cabbage', '30ml\r Rice vinegar', '45ml\r Sweet soy sauce', '15ml Tamarind paste', '12g Mellow Sesame spices (brown sugar, sea salt, white sesame seeds, garlic, ginger, black pepper)']</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sheet Pan Sticky Tamarind Chicken Breasts</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/sheet-pan-sticky-tamarindchicken-thighs</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>['4\r Chicken thighs', '450g\r Potatoes', '170g\r Baby bok choy', '150g\r Matchstick daikon', '150g\r Shredded green cabbage', '30ml\r Rice vinegar', '45ml\r Sweet soy sauce', '15ml Tamarind paste', '12g Mellow Sesame spices (brown sugar, sea salt, white sesame seeds, garlic, ginger, black pepper)']</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Seared Chicken Grains Salad</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/seared-chicken-grains-salad</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>['2\r Chicken breasts', '225g\r Red beets', '120g\r Baby greens (lettuce mix, baby spinach, kale or arugula)', '30ml\r White balsamic vinegar', '25g\r Pistachios', '80g\r Bulgur', '15g Balsamic glaze', '7.5g Bell Pepper &amp; Olive spices (garlic, red bell pepper, dried black olives, basil, oregano, salt, parsley, lemon, sunflower oil, black pepper)']</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Seared Chicken Breasts</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/seared-chicken-grains-salad</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>['2\r Chicken breasts', '225g\r Red beets', '120g\r Baby greens (lettuce mix, baby spinach, kale or arugula)', '30ml\r White balsamic vinegar', '25g\r Pistachios', '80g\r Bulgur', '15g Balsamic glaze', '7.5g Bell Pepper &amp; Olive spices (garlic, red bell pepper, dried black olives, basil, oregano, salt, parsley, lemon, sunflower oil, black pepper)']</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Seared Chicken Tomatillo Tacos</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/seared-chicken-grains-salad</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>['2\r Chicken breasts', '225g\r Red beets', '120g\r Baby greens (lettuce mix, baby spinach, kale or arugula)', '30ml\r White balsamic vinegar', '25g\r Pistachios', '80g\r Bulgur', '15g Balsamic glaze', '7.5g Bell Pepper &amp; Olive spices (garlic, red bell pepper, dried black olives, basil, oregano, salt, parsley, lemon, sunflower oil, black pepper)']</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Cheesy Baked Cheese Tortellini</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/cheesy-baked-cheese-tortellini-9</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>['100g\r Radishes (or French radishes)', '15ml\r Minced garlic', '90g Baby greens (lettuce mix, baby spinach, kale or arugula)', '1\r Bunch of chives (or garlic chives)', '45ml\r Maple-Dijon vinaigrette', '20g\r Panko', '350g\r Fresh three-cheese tortellini (contains lipase)', '60g\r Grated mozzarella', '200ml Milk', '12g Tangy Herbs blend (enriched wheat flour, salt, paprika, garlic, onion, red bell pepper, black pepper, sunflower oil, oregano, parsley, chives, mustard)']</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Glazed Tofu Egg Rice Bowls</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://www.makegoodfood.ca/en/recipe/glazed-tofu-egg-rice-bowls-3</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>['225g\r Asian greens (yu choy or gai lan)', '100g\r Shredded red cabbage', '1 Block of tofu (non-GMO)', '30ml\r Rice vinegar', '160g\r White rice', '60ml\r Sweet soy sauce', '2 Hard-boiled eggs', '8g Sugared Sesame spices (sea salt, brown sugar, white sesame seeds, garlic, sunflower oil, ginger, black pepper, sugar)']</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
